--- a/Colecciones/Oath of the Gatewatch (OGW).xlsx
+++ b/Colecciones/Oath of the Gatewatch (OGW).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A188"/>
+  <dimension ref="A1:A303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,1316 +437,2121 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Oath</t>
+          <t>Oath of the Gatewatch (OGW)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Abstruse Interference</t>
+          <t>Aberrant Researcher // Perfected Form</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Affa Protector</t>
+          <t>Accursed Witch // Infectious Curse</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Akoum Flameseeker</t>
+          <t>Aim High</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Allied Reinforcements</t>
+          <t>Alms of the Vein</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ancient Crab</t>
+          <t>Altered Ego</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ayli, Eternal Pilgrim</t>
+          <t>Always Watching</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Baloth Null</t>
+          <t>Angelic Purge</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Baloth Pup</t>
+          <t>Angel of Deliverance</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bearer of Silence</t>
+          <t>Anguished Unmaking</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Birthing Hulk</t>
+          <t>Apothecary Geist</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Blinding Drone</t>
+          <t>Archangel Avacyn // Avacyn, the Purifier</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bonds of Mortality</t>
+          <t>Arlinn Kord // Arlinn, Embraced by the Moon</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bone Saw</t>
+          <t>Asylum Visitor</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Boulder Salvo</t>
+          <t>Autumnal Gloom // Ancient of the Equinox</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Brute Strength</t>
+          <t>Avacynian Missionaries // Lunarch Inquisitors</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Call the Gatewatch</t>
+          <t>Avacyn's Judgment</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Canopy Gorger</t>
+          <t>Behind the Scenes</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Captain's Claws</t>
+          <t>Behold the Beyond</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Captain's Claws</t>
+          <t>Biting Rain</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chandra, Flamecaller</t>
+          <t>Bloodmad Vampire</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chitinous Cloak</t>
+          <t>Bound by Moonsilver</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Cinder Barrens</t>
+          <t>Brain in a Jar</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cinder Hellion</t>
+          <t>Breakneck Rider // Neck Breaker</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cliffhaven Vampire</t>
+          <t>Briarbridge Patrol</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Comparative Analysis</t>
+          <t>Broken Concentration</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Consuming Sinkhole</t>
+          <t>Burn from Within</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Containment Membrane</t>
+          <t>Bygone Bishop</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Corpse Churn</t>
+          <t>Byway Courier</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Corrupted Crossroads</t>
+          <t>Call the Bloodline</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Crumbling Vestige</t>
+          <t>Catalog</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Crush of Tentacles</t>
+          <t>Cathar's Companion</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Cultivator Drone</t>
+          <t>Chaplain's Blessing</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Cyclone Sire</t>
+          <t>Choked Estuary</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Dazzling Reflection</t>
+          <t>Clip Wings</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Deceiver of Form</t>
+          <t>Compelling Deterrence</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Deepfathom Skulker</t>
+          <t>Confirm Suspicions</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Devour in Flames</t>
+          <t>Confront the Unknown</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Dimensional Infiltrator</t>
+          <t>Convicted Killer // Branded Howler</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Drana's Chosen</t>
+          <t>Corrupted Grafstone</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Dread Defiler</t>
+          <t>Crawling Sensation</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Eldrazi Aggressor</t>
+          <t>Creeping Dread</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Eldrazi Displacer</t>
+          <t>Crow of Dark Tidings</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Eldrazi Mimic</t>
+          <t>Cryptolith Rite</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Eldrazi Obligator</t>
+          <t>Cult of the Waxing Moon</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Elemental Uprising</t>
+          <t>Dance with Devils</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Embodiment of Fury</t>
+          <t>Daring Sleuth // Bearer of Overwhelming Truths</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Embodiment of Insight</t>
+          <t>Dauntless Cathar</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Endbringer</t>
+          <t>Dead Weight</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Essence Depleter</t>
+          <t>Deathcap Cultivator</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Expedite</t>
+          <t>Declaration in Stone</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Expedition Raptor</t>
+          <t>Deny Existence</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Fall of the Titans</t>
+          <t>Descend upon the Sinful</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Flayer Drone</t>
+          <t>Devils' Playground</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Flaying Tendrils</t>
+          <t>Devilthorn Fox</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>General Tazri</t>
+          <t>Diregraf Colossus</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Gift of Tusks</t>
+          <t>Dissension in the Ranks</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Gladehart Cavalry</t>
+          <t>Drogskol Cavalry</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Goblin Dark-Dwellers</t>
+          <t>Drownyard Explorers</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Goblin Freerunner</t>
+          <t>Drownyard Temple</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Grasp of Darkness</t>
+          <t>Drunau Corpse Trawler</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Gravity Negator</t>
+          <t>Dual Shot</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Grip of the Roil</t>
+          <t>Duskwatch Recruiter // Krallenhorde Howler</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Harvester Troll</t>
+          <t>Eerie Interlude</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Havoc Sower</t>
+          <t>Elusive Tormentor // Insidious Mist</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Hedron Alignment</t>
+          <t>Ember-Eye Wolf</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Hedron Crawler</t>
+          <t>Emissary of the Sleepless</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Hissing Quagmire</t>
+          <t>Engulf the Shore</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Holdout Settlement</t>
+          <t>Epiphany at the Drownyard</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Immobilizer Eldrazi</t>
+          <t>Epitaph Golem</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Immolating Glare</t>
+          <t>Equestrian Skill</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Inverter of Truth</t>
+          <t>Erdwal Illuminator</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Iona's Blessing</t>
+          <t>Essence Flux</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Isolation Zone</t>
+          <t>Ethereal Guidance</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Joraga Auxiliary</t>
+          <t>Ever After</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Jori En, Ruin Diver</t>
+          <t>Explosive Apparatus</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Jwar Isle Avenger</t>
+          <t>Expose Evil</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Kalitas, Traitor of Ghet</t>
+          <t>Falkenrath Gorger</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Kazuul's Toll Collector</t>
+          <t>Farbog Revenant</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Kor Scythemaster</t>
+          <t>Fevered Visions</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Kor Sky Climber</t>
+          <t>Fiery Temper</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Kozilek's Pathfinder</t>
+          <t>Flameblade Angel</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Kozilek's Return</t>
+          <t>Fleeting Memories</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Kozilek's Shrieker</t>
+          <t>Foreboding Ruins</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Kozilek's Translator</t>
+          <t>Forest</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Kozilek, the Great Distortion</t>
+          <t>Forest</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Lead by Example</t>
+          <t>Forest</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Linvala, the Preserver</t>
+          <t>Forgotten Creation</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Loam Larva</t>
+          <t>Fork in the Road</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Make a Stand</t>
+          <t>Forsaken Sanctuary</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Makindi Aeronaut</t>
+          <t>Fortified Village</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Malakir Soothsayer</t>
+          <t>Foul Orchard</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Matter Reshaper</t>
+          <t>From Under the Floorboards</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Maw of Kozilek</t>
+          <t>Furtive Homunculus</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Meandering River</t>
+          <t>Game Trail</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Mighty Leap</t>
+          <t>Gatstaf Arsonists // Gatstaf Ravagers</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Mina and Denn, Wildborn</t>
+          <t>Geier Reach Bandit // Vildin-Pack Alpha</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Mindmelter</t>
+          <t>Geistblast</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Mirrorpool</t>
+          <t>Geralf's Masterpiece</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Munda's Vanguard</t>
+          <t>Ghostly Wings</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Natural State</t>
+          <t>Ghoulcaller's Accomplice</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Needle Spires</t>
+          <t>Ghoulsteed</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Negate</t>
+          <t>Gibbering Fiend</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Netcaster Spider</t>
+          <t>Gisa's Bidding</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Nissa's Judgment</t>
+          <t>Gloomwidow</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Nissa, Voice of Zendikar</t>
+          <t>Goldnight Castigator</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Null Caller</t>
+          <t>Gone Missing</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Oath of Chandra</t>
+          <t>Graf Mole</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Oath of Gideon</t>
+          <t>Grotesque Mutation</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Oath of Jace</t>
+          <t>Groundskeeper</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Oath of Nissa</t>
+          <t>Gryff's Boon</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Oblivion Strike</t>
+          <t>Hanweir Militia Captain // Westvale Cult Leader</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Ondu War Cleric</t>
+          <t>Harness the Storm</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Overwhelming Denial</t>
+          <t>Harvest Hand // Scrounged Scythe</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Press into Service</t>
+          <t>Haunted Cloak</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Prophet of Distortion</t>
+          <t>Heir of Falkenrath // Heir to the Night</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Pulse of Murasa</t>
+          <t>Hermit of the Natterknolls // Lone Wolf of the Natterknolls</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Pyromancer's Assault</t>
+          <t>Highland Lake</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Reality Hemorrhage</t>
+          <t>Hinterland Logger // Timber Shredder</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Reality Smasher</t>
+          <t>Hope Against Hope</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Reaver Drone</t>
+          <t>Hound of the Farbogs</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Reckless Bushwhacker</t>
+          <t>Howlpack Resurgence</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Reflector Mage</t>
+          <t>Howlpack Wolf</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Relentless Hunter</t>
+          <t>Hulking Devil</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Relief Captain</t>
+          <t>Humble the Brute</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Remorseless Punishment</t>
+          <t>Incorrigible Youths</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Roiling Waters</t>
+          <t>Indulgent Aristocrat</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Ruin in Their Wake</t>
+          <t>Inexorable Blob</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Ruins of Oran-Rief</t>
+          <t>Inner Struggle</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Saddleback Lagac</t>
+          <t>Inquisitor's Ox</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Scion Summoner</t>
+          <t>Insolent Neonate</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sea Gate Wreckage</t>
+          <t>Inspiring Captain</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Searing Light</t>
+          <t>Intrepid Provisioner</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Seed Guardian</t>
+          <t>Invasive Surgery</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Seer's Lantern</t>
+          <t>Invocation of Saint Traft</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Shoulder to Shoulder</t>
+          <t>Island</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Sifter of Skulls</t>
+          <t>Island</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sky Scourer</t>
+          <t>Island</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Slaughter Drone</t>
+          <t>Jace's Scrutiny</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Slip Through Space</t>
+          <t>Jace, Unraveler of Secrets</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sparkmage's Gambit</t>
+          <t>Just the Wind</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Spatial Contortion</t>
+          <t>Kessig Dire Swine</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Spawnbinder Mage</t>
+          <t>Kessig Forgemaster // Flameheart Werewolf</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sphinx of the Final Word</t>
+          <t>Kindly Stranger // Demon-Possessed Witch</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Stalking Drone</t>
+          <t>Lambholt Pacifist // Lambholt Butcher</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Steppe Glider</t>
+          <t>Lamplighter of Selhoff</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Stoneforge Acolyte</t>
+          <t>Lightning Axe</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Stoneforge Masterwork</t>
+          <t>Liliana's Indignation</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Stone Haven Outfitter</t>
+          <t>Loam Dryad</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Stormchaser Mage</t>
+          <t>Macabre Waltz</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Strider Harness</t>
+          <t>Mad Prophet</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Submerged Boneyard</t>
+          <t>Magmatic Chasm</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sweep Away</t>
+          <t>Magnifying Glass</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sylvan Advocate</t>
+          <t>Malevolent Whispers</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Tajuru Pathwarden</t>
+          <t>Manic Scribe</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Tar Snare</t>
+          <t>Markov Dreadknight</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Tears of Valakut</t>
+          <t>Merciless Resolve</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Thought Harvester</t>
+          <t>Might Beyond Reason</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Thought-Knot Seer</t>
+          <t>Militant Inquisitor</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Timber Gorge</t>
+          <t>Mindwrack Demon</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Tranquil Expanse</t>
+          <t>Moldgraf Scavenger</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Tyrant of Valakut</t>
+          <t>Moonlight Hunt</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Umara Entangler</t>
+          <t>Moorland Drifter</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Unity of Purpose</t>
+          <t>Morkrut Necropod</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Unknown Shores</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Unnatural Endurance</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Untamed Hunger</t>
+          <t>Mountain</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Vampire Envoy</t>
+          <t>Murderer's Axe</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Vile Redeemer</t>
+          <t>Murderous Compulsion</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Vines of the Recluse</t>
+          <t>Nagging Thoughts</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Visions of Brutality</t>
+          <t>Nahiri's Machinations</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Void Grafter</t>
+          <t>Nahiri, the Harbinger</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Void Shatter</t>
+          <t>Nearheath Chaplain</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Walker of the Wastes</t>
+          <t>Neglected Heirloom // Ashmouth Blade</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Wall of Resurgence</t>
+          <t>Nephalia Moondrakes</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Wandering Fumarole</t>
+          <t>Niblis of Dusk</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Warden of Geometries</t>
+          <t>Not Forgotten</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Warping Wail</t>
+          <t>Obsessive Skinner</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Wastes</t>
+          <t>Odric, Lunarch Marshal</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Wastes</t>
+          <t>Olivia, Mobilized for War</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Wastes</t>
+          <t>Olivia's Bloodsworn</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Wastes</t>
+          <t>Ongoing Investigation</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Weapons Trainer</t>
+          <t>Open the Armory</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Witness the End</t>
+          <t>Pack Guardian</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>World Breaker</t>
+          <t>Pale Rider of Trostad</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Zada's Commando</t>
+          <t>Paranoid Parish-Blade</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Zendikar Resurgent</t>
+          <t>Pick the Brain</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Zulaport Chainmage</t>
+          <t>Pieces of the Puzzle</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Pious Evangel // Wayward Disciple</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Plains</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Plains</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Plains</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Pore Over the Pages</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Port Town</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Press for Answers</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Prized Amalgam</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Puncturing Light</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Pyre Hound</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Quilled Wolf</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Rabid Bite</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Rancid Rats</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Rattlechains</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Ravenous Bloodseeker</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Reaper of Flight Moonsilver</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Reckless Scholar</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Reduce to Ashes</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Relentless Dead</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Rise from the Tides</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Root Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Rottenheart Ghoul</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Runaway Carriage</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Rush of Adrenaline</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Sage of Ancient Lore // Werewolf of Ancient Hunger</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Sanguinary Mage</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Sanitarium Skeleton</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Scourge Wolf</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Seagraf Skaab</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Seasons Past</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Second Harvest</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Senseless Rage</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Shamble Back</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Shard of Broken Glass</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Sigarda, Heron's Grace</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Silburlind Snapper</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Silent Observer</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Silverfur Partisan</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Silverstrike</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Sinister Concoction</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Sin Prodder</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Skeleton Key</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Skin Invasion // Skin Shedder</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Slayer's Plate</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Sleep Paralysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Solitary Hunter // One of the Pack</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Sorin, Grim Nemesis</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Soul Swallower</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Spectral Shepherd</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Spiteful Motives</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Stallion of Ashmouth</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Startled Awake // Persistent Nightmare</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Stensia Masquerade</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Stern Constable</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Stitched Mangler</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Stitchwing Skaab</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Stoic Builder</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Stone Quarry</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Stormrider Spirit</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Strength of Arms</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Stromkirk Mentor</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Structural Distortion</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Survive the Night</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Swamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Swamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Swamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Tamiyo's Journal</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Tamiyo's Journal</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Tamiyo's Journal</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Tamiyo's Journal</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Tamiyo's Journal</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Tamiyo's Journal</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Tenacity</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Thalia's Lieutenant</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>The Gitrog Monster</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Thing in the Ice // Awoken Horror</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Thornhide Wolves</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Thraben Gargoyle // Stonewing Antagonizer</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Thraben Inspector</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Throttle</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Tireless Tracker</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Tooth Collector</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Topplegeist</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Tormenting Voice</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>To the Slaughter</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Town Gossipmonger // Incited Rabble</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Trail of Evidence</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Traverse the Ulvenwald</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Triskaidekaphobia</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>True-Faith Censer</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Twins of Maurer Estate</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Ulrich's Kindred</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Ulvenwald Hydra</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Ulvenwald Mysteries</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Uncaged Fury</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Uninvited Geist // Unimpeded Trespasser</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Unruly Mob</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Vampire Noble</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Vessel of Ephemera</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Vessel of Malignity</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Vessel of Nascency</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Vessel of Paramnesia</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Vessel of Volatility</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Veteran Cathar</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Village Messenger // Moonrise Intruder</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Voldaren Duelist</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Warped Landscape</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Watcher in the Web</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Weirding Wood</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Welcome to the Fold</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Westvale Abbey // Ormendahl, Profane Prince</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Wicker Witch</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Wild-Field Scarecrow</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Wolf of Devil's Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Woodland Stream</t>
         </is>
       </c>
     </row>
